--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s3_P4_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s3_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>351.9843940269183</v>
+        <v>2081.958923981153</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.91439402691221</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.336610638892269</v>
+        <v>8.265616796420925</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.336610638892269</v>
+        <v>6.571887095804371</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>241.7800000000061</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,56 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -634,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -791,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -813,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -835,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -885,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>27.53018219295432</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>24.4246226620485</v>
       </c>
     </row>
     <row r="5">
@@ -925,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.44155308712504</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.01606971056828</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.46981780704569</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,15 +1031,281 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>105.41</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>91.01999999999948</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.99</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>94.90000000000001</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>98.59499999999949</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999985</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000000029</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.2050000000003</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.1900000000003</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000000029</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58500000000029</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>113.295000000001</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>121.65</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>123.55</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>125.910000000001</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>126.085000000001</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>85.68999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>96.85999999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>81.12999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>89.87499999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>86.53999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>113.295000000001</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>121.65</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>123.55</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>125.910000000001</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>126.085000000001</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>105.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>91.01999999999948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>104.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>94.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>98.59499999999949</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1629,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>13.295000000001</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
@@ -1640,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>21.65</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9">
@@ -1651,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>23.55</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>25.91000000000102</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
@@ -1673,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>26.08500000000102</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12">
@@ -1684,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.409999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1706,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.990000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1885,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1896,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1907,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1918,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1929,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1940,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1951,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1962,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1973,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1984,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2053,7 +2363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2094,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2102,10 +2412,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2113,10 +2423,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2124,10 +2434,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2135,10 +2445,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2146,12 +2456,155 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
